--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H2">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J2">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>3.912419564766001</v>
+        <v>35.47275263165334</v>
       </c>
       <c r="R2">
-        <v>35.211776082894</v>
+        <v>319.25477368488</v>
       </c>
       <c r="S2">
-        <v>0.002381962113509229</v>
+        <v>0.01386435047697977</v>
       </c>
       <c r="T2">
-        <v>0.002381962113509228</v>
+        <v>0.01386435047697976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H3">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J3">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>257.1361822533363</v>
+        <v>995.9844253773117</v>
       </c>
       <c r="R3">
-        <v>2314.225640280027</v>
+        <v>8963.859828395804</v>
       </c>
       <c r="S3">
-        <v>0.1565498367444351</v>
+        <v>0.389275602218771</v>
       </c>
       <c r="T3">
-        <v>0.156549836744435</v>
+        <v>0.3892756022187709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H4">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J4">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>1.305194540233667</v>
+        <v>18.21989650456067</v>
       </c>
       <c r="R4">
-        <v>11.746750862103</v>
+        <v>163.979068541046</v>
       </c>
       <c r="S4">
-        <v>0.0007946294854451872</v>
+        <v>0.007121156720387108</v>
       </c>
       <c r="T4">
-        <v>0.0007946294854451871</v>
+        <v>0.007121156720387105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H5">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J5">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>110.8070663426737</v>
+        <v>164.6591044417954</v>
       </c>
       <c r="R5">
-        <v>997.2635970840631</v>
+        <v>1481.931939976158</v>
       </c>
       <c r="S5">
-        <v>0.06746163839744991</v>
+        <v>0.06435619916255322</v>
       </c>
       <c r="T5">
-        <v>0.0674616383974499</v>
+        <v>0.0643561991625532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H6">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J6">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>14.22378478508333</v>
+        <v>103.694202632218</v>
       </c>
       <c r="R6">
-        <v>128.01406306575</v>
+        <v>933.2478236899622</v>
       </c>
       <c r="S6">
-        <v>0.008659734956315678</v>
+        <v>0.0405283678617365</v>
       </c>
       <c r="T6">
-        <v>0.008659734956315676</v>
+        <v>0.04052836786173649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.600099</v>
+        <v>21.691274</v>
       </c>
       <c r="H7">
-        <v>16.800297</v>
+        <v>65.07382200000001</v>
       </c>
       <c r="I7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894792</v>
       </c>
       <c r="J7">
-        <v>0.2373417163582682</v>
+        <v>0.5166093651894791</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>2.453784178632</v>
+        <v>3.744933382278</v>
       </c>
       <c r="R7">
-        <v>22.084057607688</v>
+        <v>33.70440044050201</v>
       </c>
       <c r="S7">
-        <v>0.001493914661113132</v>
+        <v>0.001463688749051654</v>
       </c>
       <c r="T7">
-        <v>0.001493914661113131</v>
+        <v>0.001463688749051653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J8">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>3.916958356986</v>
+        <v>9.168727534831111</v>
       </c>
       <c r="R8">
-        <v>35.252625212874</v>
+        <v>82.51854781347998</v>
       </c>
       <c r="S8">
-        <v>0.00238472542427643</v>
+        <v>0.003583551952982691</v>
       </c>
       <c r="T8">
-        <v>0.00238472542427643</v>
+        <v>0.00358355195298269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J9">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>257.434485562624</v>
+        <v>257.4344855626242</v>
       </c>
       <c r="R9">
-        <v>2316.910370063616</v>
+        <v>2316.910370063617</v>
       </c>
       <c r="S9">
-        <v>0.1567314499812814</v>
+        <v>0.1006169994689486</v>
       </c>
       <c r="T9">
-        <v>0.1567314499812813</v>
+        <v>0.1006169994689486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J10">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>1.306708694512555</v>
+        <v>4.709340391421221</v>
       </c>
       <c r="R10">
-        <v>11.760378250613</v>
+        <v>42.38406352279099</v>
       </c>
       <c r="S10">
-        <v>0.0007955513339500872</v>
+        <v>0.001840622473819498</v>
       </c>
       <c r="T10">
-        <v>0.000795551333950087</v>
+        <v>0.001840622473819498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J11">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>110.9356134584192</v>
+        <v>42.55983403467144</v>
       </c>
       <c r="R11">
-        <v>998.420521125773</v>
+        <v>383.038506312043</v>
       </c>
       <c r="S11">
-        <v>0.0675399005455754</v>
+        <v>0.01663430130235355</v>
       </c>
       <c r="T11">
-        <v>0.06753990054557539</v>
+        <v>0.01663430130235355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J12">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>14.24028577702778</v>
+        <v>26.80208950088633</v>
       </c>
       <c r="R12">
-        <v>128.16257199325</v>
+        <v>241.218805507977</v>
       </c>
       <c r="S12">
-        <v>0.008669781102184325</v>
+        <v>0.01047546454074963</v>
       </c>
       <c r="T12">
-        <v>0.008669781102184323</v>
+        <v>0.01047546454074963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2376170561365961</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="J13">
-        <v>0.237617056136596</v>
+        <v>0.1335292628838099</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>2.456630810071999</v>
+        <v>0.9679619220629999</v>
       </c>
       <c r="R13">
-        <v>22.10967729064799</v>
+        <v>8.711657298566999</v>
       </c>
       <c r="S13">
-        <v>0.001495647749328482</v>
+        <v>0.0003783231449559742</v>
       </c>
       <c r="T13">
-        <v>0.001495647749328482</v>
+        <v>0.0003783231449559741</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H14">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I14">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J14">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>1.239336660984</v>
+        <v>2.087986638915556</v>
       </c>
       <c r="R14">
-        <v>11.154029948856</v>
+        <v>18.79187975024</v>
       </c>
       <c r="S14">
-        <v>0.0007545338436941079</v>
+        <v>0.0008160792835497244</v>
       </c>
       <c r="T14">
-        <v>0.0007545338436941077</v>
+        <v>0.0008160792835497242</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H15">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I15">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J15">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>81.4529966064831</v>
+        <v>58.62533968959957</v>
       </c>
       <c r="R15">
-        <v>733.076969458348</v>
+        <v>527.6280572063961</v>
       </c>
       <c r="S15">
-        <v>0.049590272397087</v>
+        <v>0.02291342498082075</v>
       </c>
       <c r="T15">
-        <v>0.04959027239708698</v>
+        <v>0.02291342498082074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H16">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I16">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J16">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>0.4134463128635556</v>
+        <v>1.072454141323111</v>
       </c>
       <c r="R16">
-        <v>3.721016815772</v>
+        <v>9.652087271908</v>
       </c>
       <c r="S16">
-        <v>0.000251714683690877</v>
+        <v>0.0004191634136823111</v>
       </c>
       <c r="T16">
-        <v>0.0002517146836908769</v>
+        <v>0.000419163413682311</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H17">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I17">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J17">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>35.10034068209023</v>
+        <v>9.692115343298223</v>
       </c>
       <c r="R17">
-        <v>315.9030661388121</v>
+        <v>87.229038089684</v>
       </c>
       <c r="S17">
-        <v>0.02136981484014384</v>
+        <v>0.003788115497495762</v>
       </c>
       <c r="T17">
-        <v>0.02136981484014383</v>
+        <v>0.003788115497495761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H18">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I18">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J18">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>4.505666544777777</v>
+        <v>6.103617384230668</v>
       </c>
       <c r="R18">
-        <v>40.550998903</v>
+        <v>54.932556458076</v>
       </c>
       <c r="S18">
-        <v>0.002743143169617749</v>
+        <v>0.002385568762342092</v>
       </c>
       <c r="T18">
-        <v>0.002743143169617748</v>
+        <v>0.002385568762342091</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.773942666666667</v>
+        <v>1.276785333333333</v>
       </c>
       <c r="H19">
-        <v>5.321828</v>
+        <v>3.830356</v>
       </c>
       <c r="I19">
-        <v>0.07518270609641543</v>
+        <v>0.03040850715068976</v>
       </c>
       <c r="J19">
-        <v>0.07518270609641541</v>
+        <v>0.03040850715068975</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>0.777284910368</v>
+        <v>0.220433157444</v>
       </c>
       <c r="R19">
-        <v>6.995564193311999</v>
+        <v>1.983898416996</v>
       </c>
       <c r="S19">
-        <v>0.0004732271621818575</v>
+        <v>8.615521279912675E-05</v>
       </c>
       <c r="T19">
-        <v>0.0004732271621818574</v>
+        <v>8.615521279912673E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H20">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I20">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J20">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>4.160206181448001</v>
+        <v>11.46446915939556</v>
       </c>
       <c r="R20">
-        <v>37.44185563303201</v>
+        <v>103.18022243456</v>
       </c>
       <c r="S20">
-        <v>0.002532819740969861</v>
+        <v>0.004480831248391823</v>
       </c>
       <c r="T20">
-        <v>0.00253281974096986</v>
+        <v>0.004480831248391823</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H21">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I21">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J21">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>273.421476704084</v>
+        <v>321.8930553978916</v>
       </c>
       <c r="R21">
-        <v>2460.793290336756</v>
+        <v>2897.037498581024</v>
       </c>
       <c r="S21">
-        <v>0.1664646615087221</v>
+        <v>0.1258103136929925</v>
       </c>
       <c r="T21">
-        <v>0.1664646615087221</v>
+        <v>0.1258103136929925</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H22">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I22">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J22">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>1.387856875876</v>
+        <v>5.88850388163911</v>
       </c>
       <c r="R22">
-        <v>12.490711882884</v>
+        <v>52.99653493475199</v>
       </c>
       <c r="S22">
-        <v>0.0008449560285101048</v>
+        <v>0.002301492710414879</v>
       </c>
       <c r="T22">
-        <v>0.0008449560285101045</v>
+        <v>0.002301492710414879</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H23">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I23">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J23">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>117.824848464196</v>
+        <v>53.21631631716622</v>
       </c>
       <c r="R23">
-        <v>1060.423636177764</v>
+        <v>478.946846854496</v>
       </c>
       <c r="S23">
-        <v>0.07173420959223394</v>
+        <v>0.02079933486347606</v>
       </c>
       <c r="T23">
-        <v>0.07173420959223392</v>
+        <v>0.02079933486347606</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H24">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I24">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J24">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>15.124624649</v>
+        <v>33.51301773588267</v>
       </c>
       <c r="R24">
-        <v>136.121621841</v>
+        <v>301.617159622944</v>
       </c>
       <c r="S24">
-        <v>0.009208184934818087</v>
+        <v>0.01309839775492664</v>
       </c>
       <c r="T24">
-        <v>0.009208184934818084</v>
+        <v>0.01309839775492664</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.954772000000001</v>
+        <v>7.010421333333333</v>
       </c>
       <c r="H25">
-        <v>17.864316</v>
+        <v>21.031264</v>
       </c>
       <c r="I25">
-        <v>0.2523733610784663</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="J25">
-        <v>0.2523733610784662</v>
+        <v>0.1669634210846313</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>2.609190537696</v>
+        <v>1.210328211936</v>
       </c>
       <c r="R25">
-        <v>23.482714839264</v>
+        <v>10.892953907424</v>
       </c>
       <c r="S25">
-        <v>0.001588529273212128</v>
+        <v>0.0004730508144294195</v>
       </c>
       <c r="T25">
-        <v>0.001588529273212128</v>
+        <v>0.0004730508144294194</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H26">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J26">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>1.727452209276</v>
+        <v>7.695221315684445</v>
       </c>
       <c r="R26">
-        <v>15.547069883484</v>
+        <v>69.25699184116</v>
       </c>
       <c r="S26">
-        <v>0.00105170870538762</v>
+        <v>0.003007639311965112</v>
       </c>
       <c r="T26">
-        <v>0.00105170870538762</v>
+        <v>0.003007639311965112</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H27">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J27">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>113.5334436312913</v>
+        <v>216.0621889098655</v>
       </c>
       <c r="R27">
-        <v>1021.800992681622</v>
+        <v>1944.559700188789</v>
       </c>
       <c r="S27">
-        <v>0.06912151339324618</v>
+        <v>0.08444684129747408</v>
       </c>
       <c r="T27">
-        <v>0.06912151339324618</v>
+        <v>0.08444684129747405</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H28">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J28">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>0.5762830787286667</v>
+        <v>3.952502288371889</v>
       </c>
       <c r="R28">
-        <v>5.186547708558001</v>
+        <v>35.57252059534699</v>
       </c>
       <c r="S28">
-        <v>0.0003508530814409827</v>
+        <v>0.001544816032634406</v>
       </c>
       <c r="T28">
-        <v>0.0003508530814409827</v>
+        <v>0.001544816032634406</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H29">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J29">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>48.92468928456867</v>
+        <v>35.72004302793678</v>
       </c>
       <c r="R29">
-        <v>440.322203561118</v>
+        <v>321.480387251431</v>
       </c>
       <c r="S29">
-        <v>0.02978636477042142</v>
+        <v>0.01396100270916671</v>
       </c>
       <c r="T29">
-        <v>0.02978636477042141</v>
+        <v>0.01396100270916671</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H30">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J30">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>6.280233508833334</v>
+        <v>22.49472564743434</v>
       </c>
       <c r="R30">
-        <v>56.5221015795</v>
+        <v>202.452530826909</v>
       </c>
       <c r="S30">
-        <v>0.003823536314139363</v>
+        <v>0.008791952614955528</v>
       </c>
       <c r="T30">
-        <v>0.003823536314139363</v>
+        <v>0.008791952614955524</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.472614</v>
+        <v>4.705559666666667</v>
       </c>
       <c r="H31">
-        <v>7.417842</v>
+        <v>14.116679</v>
       </c>
       <c r="I31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="J31">
-        <v>0.1047935850154583</v>
+        <v>0.1120697747978235</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>1.083420331152</v>
+        <v>0.812400759771</v>
       </c>
       <c r="R31">
-        <v>9.750782980367999</v>
+        <v>7.311606837938999</v>
       </c>
       <c r="S31">
-        <v>0.0006596087508227237</v>
+        <v>0.0003175228316276513</v>
       </c>
       <c r="T31">
-        <v>0.0006596087508227236</v>
+        <v>0.0003175228316276512</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H32">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I32">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J32">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>1.527958667844</v>
+        <v>2.775398613977778</v>
       </c>
       <c r="R32">
-        <v>13.751628010596</v>
+        <v>24.9785875258</v>
       </c>
       <c r="S32">
-        <v>0.0009302529029833531</v>
+        <v>0.001084750864898367</v>
       </c>
       <c r="T32">
-        <v>0.000930252902983353</v>
+        <v>0.001084750864898366</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H33">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I33">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J33">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>100.422117819002</v>
+        <v>77.92611479688279</v>
       </c>
       <c r="R33">
-        <v>903.7990603710178</v>
+        <v>701.335033171945</v>
       </c>
       <c r="S33">
-        <v>0.0611390665145928</v>
+        <v>0.03045703777409354</v>
       </c>
       <c r="T33">
-        <v>0.06113906651459278</v>
+        <v>0.03045703777409353</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H34">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I34">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J34">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>0.509731453378</v>
+        <v>1.425530068970555</v>
       </c>
       <c r="R34">
-        <v>4.587583080401999</v>
+        <v>12.829770620735</v>
       </c>
       <c r="S34">
-        <v>0.000310335072686155</v>
+        <v>0.0005571613992550692</v>
       </c>
       <c r="T34">
-        <v>0.0003103350726861549</v>
+        <v>0.000557161399255069</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H35">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I35">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J35">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>43.274657708338</v>
+        <v>12.88297682990611</v>
       </c>
       <c r="R35">
-        <v>389.471919375042</v>
+        <v>115.946791469155</v>
       </c>
       <c r="S35">
-        <v>0.02634650845339648</v>
+        <v>0.005035247977830895</v>
       </c>
       <c r="T35">
-        <v>0.02634650845339647</v>
+        <v>0.005035247977830893</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H36">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I36">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J36">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>5.554965384499999</v>
+        <v>8.113064955838333</v>
       </c>
       <c r="R36">
-        <v>49.99468846049999</v>
+        <v>73.017584602545</v>
       </c>
       <c r="S36">
-        <v>0.003381978049311182</v>
+        <v>0.003170951438650797</v>
       </c>
       <c r="T36">
-        <v>0.003381978049311182</v>
+        <v>0.003170951438650796</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.187066</v>
+        <v>1.697131666666666</v>
       </c>
       <c r="H37">
-        <v>6.561197999999999</v>
+        <v>5.091394999999999</v>
       </c>
       <c r="I37">
-        <v>0.09269157531479572</v>
+        <v>0.04041966889356657</v>
       </c>
       <c r="J37">
-        <v>0.0926915753147957</v>
+        <v>0.04041966889356656</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>0.9583023350879998</v>
+        <v>0.293004690855</v>
       </c>
       <c r="R37">
-        <v>8.624721015791998</v>
+        <v>2.637042217694999</v>
       </c>
       <c r="S37">
-        <v>0.0005834343218257483</v>
+        <v>0.0001145194388379069</v>
       </c>
       <c r="T37">
-        <v>0.0005834343218257482</v>
+        <v>0.0001145194388379069</v>
       </c>
     </row>
   </sheetData>
